--- a/i_test/test_D6_Table_3_study_outcomes/g_output/D6_Table_3_study_outcomes.xlsx
+++ b/i_test/test_D6_Table_3_study_outcomes/g_output/D6_Table_3_study_outcomes.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,6 +375,41 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Infarto del miocardio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ictus ischemico</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trombosi venosa profonda</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Attacco ischemico transitorio</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Embolia polmonare</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Coagulazione intravascolare disseminata</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trombosi</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Decesso</t>
         </is>
       </c>
@@ -392,6 +427,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>13 (1.3%)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8 (0.8%)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1 (0.1%)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>6 (0.6%)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>25 (2.5%)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>123 (12.3%)</t>
         </is>
       </c>
@@ -409,6 +479,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2 (0.3%)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9 (1.6%)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1 (0.2%)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1 (0.2%)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>12 (2.1%)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>91 (15.9%)</t>
         </is>
       </c>
@@ -426,6 +531,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2 (1.5%)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1 (0.8%)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3 (2.3%)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>18 (13.6%)</t>
         </is>
       </c>
@@ -443,6 +583,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2 (0.2%)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10 (0.9%)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4 (0.4%)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5 (0.5%)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6 (0.5%)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>26 (2.4%)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>155 (14.2%)</t>
         </is>
       </c>
@@ -460,6 +635,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2 (0.9%)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3 (1.3%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1 (0.4%)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 (1.3%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>9 (3.8%)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>32 (13.6%)</t>
         </is>
       </c>
@@ -477,6 +687,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>6 (0.2%)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37 (1.2%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>15 (0.5%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7 (0.2%)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>15 (0.5%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>75 (2.5%)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>419 (13.8%)</t>
         </is>
       </c>
@@ -494,6 +739,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6 (1.3%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5 (1.1%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 (0.7%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>13 (2.9%)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>79 (17.6%)</t>
         </is>
       </c>
@@ -511,6 +791,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5 (1.9%)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1 (0.4%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1 (0.4%)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>6 (2.3%)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>61 (23.1%)</t>
         </is>
       </c>
@@ -528,6 +843,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2 (2.6%)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1 (1.3%)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>3 (3.9%)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>15 (19.7%)</t>
         </is>
       </c>
@@ -545,6 +895,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3 (0.6%)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2 (0.4%)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3 (0.6%)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 (0.4%)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>10 (2.1%)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>107 (22.7%)</t>
         </is>
       </c>
@@ -562,6 +947,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2 (1.9%)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3 (2.8%)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>5 (4.7%)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>21 (19.8%)</t>
         </is>
       </c>
@@ -578,6 +998,41 @@
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>18 (1.3%)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9 (0.7%)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4 (0.3%)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>8 (0.6%)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0 (0%)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>37 (2.7%)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>283 (20.7%)</t>
         </is>
